--- a/src/test/resources/sample-data.xlsx
+++ b/src/test/resources/sample-data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="1" r:id="rId1"/>
     <sheet name="t_authority" sheetId="2" r:id="rId2"/>
     <sheet name="t_user_authority" sheetId="3" r:id="rId3"/>
+    <sheet name="t_product" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -50,14 +51,193 @@
   </si>
   <si>
     <t>authority_id</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>max90</t>
+  </si>
+  <si>
+    <t>max97</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:14</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:44</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>navy</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:15</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:16</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:17</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:18</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:19</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:20</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:21</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:22</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:23</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:24</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:25</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:26</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:27</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:28</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:29</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:30</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:31</t>
+  </si>
+  <si>
+    <t>2017-06-06 11:32:32</t>
+  </si>
+  <si>
+    <t>2017-12-11 11:32:14</t>
+  </si>
+  <si>
+    <t>2017-12-06 11:32:15</t>
+  </si>
+  <si>
+    <t>2017-11-26 11:32:16</t>
+  </si>
+  <si>
+    <t>2017-11-13 11:32:17</t>
+  </si>
+  <si>
+    <t>2017-11-13 16:32:17</t>
+  </si>
+  <si>
+    <t>2017-11-06 11:32:18</t>
+  </si>
+  <si>
+    <t>2017-10-22 11:32:19</t>
+  </si>
+  <si>
+    <t>2017-10-11 11:32:20</t>
+  </si>
+  <si>
+    <t>2017-09-06 11:32:21</t>
+  </si>
+  <si>
+    <t>2017-09-16 11:32:21</t>
+  </si>
+  <si>
+    <t>2017-09-26 11:32:21</t>
+  </si>
+  <si>
+    <t>2017-09-26 19:32:21</t>
+  </si>
+  <si>
+    <t>2017-09-06 11:11:21</t>
+  </si>
+  <si>
+    <t>2017-06-08 11:32:31</t>
+  </si>
+  <si>
+    <t>2017-06-16 11:32:30</t>
+  </si>
+  <si>
+    <t>2017-06-26 11:32:29</t>
+  </si>
+  <si>
+    <t>2017-08-06 11:32:28</t>
+  </si>
+  <si>
+    <t>2017-07-06 11:32:28</t>
+  </si>
+  <si>
+    <t>2017-07-07 11:32:27</t>
+  </si>
+  <si>
+    <t>2017-07-22 11:32:26</t>
+  </si>
+  <si>
+    <t>2017-08-06 11:32:25</t>
+  </si>
+  <si>
+    <t>2017-08-30 11:32:24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="20">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="나눔고딕"/>
@@ -166,6 +346,11 @@
       <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="나눔고딕"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="33">
@@ -519,8 +704,17 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,7 +1042,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <sheetFormatPr defaultRowHeight="14.250000" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="0" t="s">
@@ -935,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="352" workbookViewId="0">
+    <sheetView zoomScale="352" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -970,4 +1164,381 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="199" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <cols>
+    <col min="5" max="5" style="3" width="17.78277800" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="0">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="0">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="0">
+        <v>-6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="0">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="0">
+        <v>-8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="0">
+        <v>-9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="0">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0">
+        <v>89.9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="0">
+        <v>-11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="0">
+        <v>-12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="0">
+        <v>-13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="0">
+        <v>-14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="0">
+        <v>-15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="0">
+        <v>-16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="0">
+        <v>-17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="0">
+        <v>-18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0">
+        <v>-19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="0">
+        <v>-20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0">
+        <v>99.9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/src/test/resources/sample-data.xlsx
+++ b/src/test/resources/sample-data.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="1" r:id="rId1"/>
     <sheet name="t_authority" sheetId="2" r:id="rId2"/>
     <sheet name="t_user_authority" sheetId="3" r:id="rId3"/>
     <sheet name="t_product" sheetId="4" r:id="rId4"/>
+    <sheet name="t_cart" sheetId="5" r:id="rId5"/>
+    <sheet name="t_cart_product" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -228,14 +230,97 @@
   </si>
   <si>
     <t>2017-08-30 11:32:24</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>buy_count</t>
+  </si>
+  <si>
+    <t>-2-1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>-1-7</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:45</t>
+  </si>
+  <si>
+    <t>2017-12-11 11:32:15</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:46</t>
+  </si>
+  <si>
+    <t>2017-12-11 11:32:16</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:47</t>
+  </si>
+  <si>
+    <t>2017-12-11 11:32:17</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:48</t>
+  </si>
+  <si>
+    <t>2017-12-11 11:32:18</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:49</t>
+  </si>
+  <si>
+    <t>2017-12-11 11:32:19</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:50</t>
+  </si>
+  <si>
+    <t>2017-12-11 11:32:20</t>
+  </si>
+  <si>
+    <t>2017-12-16 01:12:51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="64" formatCode="@"/>
+    <numFmt numFmtId="65" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="66" formatCode="@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -555,9 +640,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -572,25 +655,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -605,7 +696,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -620,7 +713,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -635,13 +730,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -650,7 +749,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -704,7 +805,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +816,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="199" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
@@ -1541,4 +1648,410 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="199" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <cols>
+    <col min="5" max="5" style="3" width="17.78277800" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="199" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <cols>
+    <col min="4" max="4" style="5" width="9.00500033" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="3" width="17.78277800" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="0">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>-4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="0">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="0">
+        <v>-6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="0">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="0">
+        <v>-8</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C9" s="0">
+        <v>-2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="0">
+        <v>-9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="0">
+        <v>-3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="0">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="0">
+        <v>-11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="0">
+        <v>-12</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="0">
+        <v>-13</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="0">
+        <v>-14</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C15" s="0">
+        <v>-14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="0">
+        <v>-15</v>
+      </c>
+      <c r="B16" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C16" s="0">
+        <v>-15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>